--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obaut\Desktop\Math 225 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFB5283-1E2A-494A-B599-3B3D74CCE19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B27AD-D73E-4C04-91B5-B7D2CA73FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FAE6BCD2-6282-4EF1-92CB-692D2F2E6000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="58">
   <si>
     <t>pass matrix time 0 - 10 min</t>
   </si>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE733629-00C7-4BC8-A385-083814275FDF}">
-  <dimension ref="A2:AF137"/>
+  <dimension ref="A2:AF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X126" sqref="X126"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,6 +667,15 @@
       <c r="N5" t="s">
         <v>36</v>
       </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>57</v>
+      </c>
       <c r="S5" t="s">
         <v>1</v>
       </c>
@@ -753,6 +762,15 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
       <c r="S6">
         <v>1</v>
       </c>
@@ -839,6 +857,15 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
       <c r="S7">
         <v>37</v>
       </c>
@@ -925,6 +952,15 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
       <c r="S8">
         <v>2</v>
       </c>
@@ -1011,6 +1047,15 @@
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="S9">
         <v>5</v>
       </c>
@@ -1097,6 +1142,15 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="S10">
         <v>15</v>
       </c>
@@ -1183,6 +1237,15 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
       <c r="S11">
         <v>4</v>
       </c>
@@ -1269,6 +1332,15 @@
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
       <c r="S12">
         <v>10</v>
       </c>
@@ -1355,6 +1427,15 @@
       <c r="N13">
         <v>1</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
       <c r="S13">
         <v>43</v>
       </c>
@@ -1441,6 +1522,15 @@
       <c r="N14">
         <v>2</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
       <c r="S14">
         <v>11</v>
       </c>
@@ -1527,6 +1617,15 @@
       <c r="N15">
         <v>1</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="S15">
         <v>22</v>
       </c>
@@ -1613,6 +1712,15 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="S16">
         <v>30</v>
       </c>
@@ -1656,57 +1764,169 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" t="s">
-        <v>36</v>
-      </c>
       <c r="S20" t="s">
         <v>1</v>
       </c>
@@ -1751,48 +1971,6 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="S21">
         <v>1</v>
       </c>
@@ -1837,47 +2015,8 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
       <c r="S22">
         <v>37</v>
@@ -1923,47 +2062,56 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
+      <c r="A23" t="s">
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>57</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2010,34 +2158,34 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2049,6 +2197,15 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
       <c r="S24">
@@ -2096,22 +2253,22 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2123,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2132,9 +2289,18 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
       <c r="S25">
@@ -2182,45 +2348,54 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>0</v>
       </c>
       <c r="S26">
@@ -2268,46 +2443,55 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="S27">
         <v>10</v>
@@ -2354,19 +2538,19 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2381,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2390,10 +2574,19 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
       </c>
       <c r="S28">
         <v>43</v>
@@ -2440,34 +2633,34 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2479,6 +2672,15 @@
         <v>0</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>0</v>
       </c>
       <c r="S29">
@@ -2526,13 +2728,13 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2544,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2559,14 +2761,23 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>2</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <v>22</v>
       </c>
@@ -2612,19 +2823,19 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2633,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2648,9 +2859,18 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
       </c>
       <c r="S31">
@@ -2696,56 +2916,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>38</v>
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
       <c r="S34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
+      <c r="A35">
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" t="s">
-        <v>35</v>
-      </c>
-      <c r="N35" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
       </c>
       <c r="S35" t="s">
         <v>1</v>
@@ -2792,13 +3175,13 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2810,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2831,6 +3214,15 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>0</v>
       </c>
       <c r="S36">
@@ -2878,13 +3270,13 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2917,6 +3309,15 @@
         <v>0</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>0</v>
       </c>
       <c r="S37">
@@ -2963,48 +3364,6 @@
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
       <c r="S38">
         <v>2</v>
       </c>
@@ -3049,48 +3408,6 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
       <c r="S39">
         <v>5</v>
       </c>
@@ -3135,47 +3452,8 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
+      <c r="A40" t="s">
+        <v>38</v>
       </c>
       <c r="S40">
         <v>15</v>
@@ -3221,47 +3499,56 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>5</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
         <v>31</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
+      <c r="J41" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>57</v>
       </c>
       <c r="S41">
         <v>4</v>
@@ -3308,13 +3595,13 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3323,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3332,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -3344,9 +3631,18 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>0</v>
       </c>
       <c r="S42">
@@ -3394,13 +3690,13 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3421,18 +3717,27 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>0</v>
       </c>
       <c r="S43">
@@ -3480,16 +3785,16 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3504,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -3513,12 +3818,21 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>0</v>
       </c>
       <c r="S44">
@@ -3566,22 +3880,22 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3590,21 +3904,30 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>0</v>
       </c>
       <c r="S45">
@@ -3652,13 +3975,13 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3670,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3679,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3688,9 +4011,18 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>0</v>
       </c>
       <c r="S46">
@@ -3736,56 +4068,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>41</v>
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
       </c>
       <c r="S49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50">
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" t="s">
         <v>34</v>
       </c>
-      <c r="M50" t="s">
-        <v>35</v>
-      </c>
-      <c r="N50" t="s">
-        <v>36</v>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
       </c>
       <c r="S50" t="s">
         <v>1</v>
@@ -3832,13 +4327,13 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3856,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3871,6 +4366,15 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>0</v>
       </c>
       <c r="S51">
@@ -3918,13 +4422,13 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3957,6 +4461,15 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
       <c r="S52">
@@ -4004,13 +4517,13 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4022,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -4043,7 +4556,16 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
       </c>
       <c r="S53">
         <v>2</v>
@@ -4090,16 +4612,16 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4117,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4129,6 +4651,15 @@
         <v>0</v>
       </c>
       <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>0</v>
       </c>
       <c r="S54">
@@ -4176,13 +4707,13 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -4215,7 +4746,16 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
       </c>
       <c r="S55">
         <v>15</v>
@@ -4261,48 +4801,6 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
       <c r="S56">
         <v>4</v>
       </c>
@@ -4347,48 +4845,6 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
       <c r="S57">
         <v>10</v>
       </c>
@@ -4433,47 +4889,8 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
+      <c r="A58" t="s">
+        <v>41</v>
       </c>
       <c r="S58">
         <v>43</v>
@@ -4519,47 +4936,56 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>8</v>
+      <c r="A59" t="s">
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" t="s">
         <v>34</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
+      <c r="M59" t="s">
+        <v>35</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>57</v>
       </c>
       <c r="S59">
         <v>11</v>
@@ -4606,13 +5032,13 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4645,6 +5071,15 @@
         <v>0</v>
       </c>
       <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>0</v>
       </c>
       <c r="S60">
@@ -4692,13 +5127,13 @@
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4722,15 +5157,24 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>0</v>
       </c>
       <c r="S61">
@@ -4776,56 +5220,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>44</v>
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
       </c>
       <c r="S64" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1</v>
+      <c r="A65">
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" t="s">
         <v>31</v>
       </c>
-      <c r="J65" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" t="s">
-        <v>34</v>
-      </c>
-      <c r="M65" t="s">
-        <v>35</v>
-      </c>
-      <c r="N65" t="s">
-        <v>36</v>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
       </c>
       <c r="S65" t="s">
         <v>1</v>
@@ -4872,31 +5479,31 @@
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
         <v>32</v>
       </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4905,12 +5512,21 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>0</v>
       </c>
       <c r="S66">
@@ -4958,13 +5574,13 @@
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4985,18 +5601,27 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>0</v>
       </c>
       <c r="S67">
@@ -5044,31 +5669,31 @@
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -5077,12 +5702,21 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>0</v>
       </c>
       <c r="S68">
@@ -5130,13 +5764,13 @@
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -5169,7 +5803,16 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
       </c>
       <c r="S69">
         <v>5</v>
@@ -5216,46 +5859,55 @@
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>2</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
       <c r="M70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
       </c>
       <c r="S70">
         <v>15</v>
@@ -5302,13 +5954,13 @@
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -5329,18 +5981,27 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>0</v>
       </c>
       <c r="S71">
@@ -5388,13 +6049,13 @@
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5403,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5427,6 +6088,15 @@
         <v>0</v>
       </c>
       <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
       </c>
       <c r="S72">
@@ -5474,13 +6144,13 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
         <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5513,7 +6183,16 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
       </c>
       <c r="S73">
         <v>43</v>
@@ -5559,48 +6238,6 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
       <c r="S74">
         <v>11</v>
       </c>
@@ -5645,48 +6282,6 @@
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>35</v>
-      </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
       <c r="S75">
         <v>38</v>
       </c>
@@ -5731,47 +6326,8 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
+      <c r="A76" t="s">
+        <v>44</v>
       </c>
       <c r="S76">
         <v>30</v>
@@ -5816,56 +6372,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>32</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M77" t="s">
+        <v>35</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>45</v>
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
       </c>
       <c r="S79" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1</v>
+      <c r="A80">
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>26</v>
-      </c>
-      <c r="F80" t="s">
         <v>27</v>
       </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" t="s">
-        <v>32</v>
-      </c>
-      <c r="K80" t="s">
-        <v>33</v>
-      </c>
-      <c r="L80" t="s">
-        <v>34</v>
-      </c>
-      <c r="M80" t="s">
-        <v>35</v>
-      </c>
-      <c r="N80" t="s">
-        <v>36</v>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
       </c>
       <c r="S80" t="s">
         <v>1</v>
@@ -5912,13 +6631,13 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5930,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5951,6 +6670,15 @@
         <v>0</v>
       </c>
       <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>0</v>
       </c>
       <c r="S81">
@@ -5998,16 +6726,16 @@
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6031,12 +6759,21 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>0</v>
       </c>
       <c r="S82">
@@ -6084,13 +6821,13 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -6111,18 +6848,27 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>0</v>
       </c>
       <c r="S83">
@@ -6170,28 +6916,28 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6209,6 +6955,15 @@
         <v>0</v>
       </c>
       <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
       <c r="S84">
@@ -6256,13 +7011,13 @@
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -6295,6 +7050,15 @@
         <v>0</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
         <v>0</v>
       </c>
       <c r="S85">
@@ -6342,19 +7106,19 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6363,24 +7127,33 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>0</v>
       </c>
       <c r="S86">
@@ -6428,13 +7201,13 @@
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -6449,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6461,12 +7234,21 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
       <c r="S87">
@@ -6514,16 +7296,16 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6538,21 +7320,30 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>0</v>
       </c>
       <c r="S88">
@@ -6600,19 +7391,19 @@
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6630,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -6639,6 +7430,15 @@
         <v>0</v>
       </c>
       <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
       </c>
       <c r="S89">
@@ -6686,13 +7486,13 @@
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -6725,6 +7525,15 @@
         <v>0</v>
       </c>
       <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>0</v>
       </c>
       <c r="S90">
@@ -6772,13 +7581,13 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -6811,6 +7620,15 @@
         <v>0</v>
       </c>
       <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>0</v>
       </c>
       <c r="S91">
@@ -6858,7 +7676,7 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S94" t="s">
         <v>50</v>
@@ -6878,7 +7696,7 @@
         <v>25</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F95" t="s">
         <v>27</v>
@@ -6906,6 +7724,15 @@
       </c>
       <c r="N95" t="s">
         <v>36</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>57</v>
       </c>
       <c r="S95" t="s">
         <v>1</v>
@@ -6964,19 +7791,19 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6991,6 +7818,15 @@
         <v>0</v>
       </c>
       <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
       <c r="S96">
@@ -7038,13 +7874,13 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7053,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7071,12 +7907,21 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
         <v>0</v>
       </c>
       <c r="S97">
@@ -7133,7 +7978,7 @@
         <v>27</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7142,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -7160,9 +8005,18 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
         <v>0</v>
       </c>
       <c r="S98">
@@ -7219,13 +8073,13 @@
         <v>28</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7237,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -7249,6 +8103,15 @@
         <v>0</v>
       </c>
       <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
         <v>0</v>
       </c>
       <c r="S99">
@@ -7337,6 +8200,15 @@
       <c r="N100">
         <v>0</v>
       </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
       <c r="S100">
         <v>15</v>
       </c>
@@ -7400,28 +8272,37 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
       </c>
       <c r="S101">
         <v>4</v>
@@ -7483,22 +8364,22 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -7507,6 +8388,15 @@
         <v>0</v>
       </c>
       <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>0</v>
       </c>
       <c r="S102">
@@ -7566,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7581,18 +8471,27 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
       <c r="S103">
@@ -7652,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7679,6 +8578,15 @@
         <v>0</v>
       </c>
       <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
       <c r="S104">
@@ -7750,13 +8658,13 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -7765,6 +8673,15 @@
         <v>0</v>
       </c>
       <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
         <v>0</v>
       </c>
       <c r="S105">
@@ -7836,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -7851,6 +8768,15 @@
         <v>0</v>
       </c>
       <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
       </c>
       <c r="S106">
@@ -7896,57 +8822,169 @@
         <v>0</v>
       </c>
     </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>48</v>
+      <c r="A109">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
       </c>
       <c r="S109" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" t="s">
-        <v>53</v>
-      </c>
-      <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
-      <c r="H110" t="s">
-        <v>29</v>
-      </c>
-      <c r="I110" t="s">
-        <v>31</v>
-      </c>
-      <c r="J110" t="s">
-        <v>32</v>
-      </c>
-      <c r="K110" t="s">
-        <v>33</v>
-      </c>
-      <c r="L110" t="s">
-        <v>34</v>
-      </c>
-      <c r="M110" t="s">
-        <v>35</v>
-      </c>
-      <c r="N110" t="s">
-        <v>36</v>
-      </c>
       <c r="S110" t="s">
         <v>1</v>
       </c>
@@ -7991,48 +9029,6 @@
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>32</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
       <c r="S111">
         <v>1</v>
       </c>
@@ -8077,47 +9073,8 @@
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>17</v>
-      </c>
-      <c r="B112" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>1</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>0</v>
+      <c r="A112" t="s">
+        <v>47</v>
       </c>
       <c r="S112">
         <v>37</v>
@@ -8163,47 +9120,56 @@
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>4</v>
+      <c r="A113" t="s">
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
         <v>27</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <v>0</v>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" t="s">
+        <v>32</v>
+      </c>
+      <c r="K113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" t="s">
+        <v>35</v>
+      </c>
+      <c r="N113" t="s">
+        <v>36</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>57</v>
       </c>
       <c r="S113">
         <v>2</v>
@@ -8250,13 +9216,13 @@
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -8265,10 +9231,10 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -8289,6 +9255,15 @@
         <v>0</v>
       </c>
       <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
         <v>0</v>
       </c>
       <c r="S114">
@@ -8336,19 +9311,19 @@
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -8375,6 +9350,15 @@
         <v>0</v>
       </c>
       <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
         <v>0</v>
       </c>
       <c r="S115">
@@ -8422,16 +9406,16 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -8440,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -8449,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -8458,9 +9442,18 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
         <v>0</v>
       </c>
       <c r="S116">
@@ -8508,34 +9501,34 @@
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -8544,9 +9537,18 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
         <v>0</v>
       </c>
       <c r="S117">
@@ -8594,13 +9596,13 @@
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -8633,6 +9635,15 @@
         <v>0</v>
       </c>
       <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
         <v>0</v>
       </c>
       <c r="S118">
@@ -8680,13 +9691,13 @@
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -8698,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -8707,18 +9718,27 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
       <c r="S119">
@@ -8766,37 +9786,37 @@
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
         <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -8805,7 +9825,16 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
       </c>
       <c r="S120">
         <v>38</v>
@@ -8852,13 +9881,13 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -8879,18 +9908,27 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
         <v>0</v>
       </c>
       <c r="S121">
@@ -8936,59 +9974,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>35</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>49</v>
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
       </c>
       <c r="S124" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1</v>
+      <c r="A125">
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" t="s">
         <v>53</v>
       </c>
-      <c r="F125" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" t="s">
-        <v>28</v>
-      </c>
-      <c r="H125" t="s">
-        <v>29</v>
-      </c>
-      <c r="I125" t="s">
-        <v>31</v>
-      </c>
-      <c r="J125" t="s">
-        <v>32</v>
-      </c>
-      <c r="K125" t="s">
-        <v>54</v>
-      </c>
-      <c r="L125" t="s">
-        <v>34</v>
-      </c>
-      <c r="M125" t="s">
-        <v>35</v>
-      </c>
-      <c r="N125" t="s">
-        <v>36</v>
-      </c>
-      <c r="O125" t="s">
-        <v>57</v>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
       </c>
       <c r="S125" t="s">
         <v>1</v>
@@ -9035,13 +10233,13 @@
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -9077,6 +10275,12 @@
         <v>0</v>
       </c>
       <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
         <v>0</v>
       </c>
       <c r="S126">
@@ -9124,13 +10328,13 @@
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -9142,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -9151,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -9166,6 +10370,12 @@
         <v>0</v>
       </c>
       <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
         <v>0</v>
       </c>
       <c r="S127">
@@ -9212,51 +10422,6 @@
       </c>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>4</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
       <c r="S128">
         <v>2</v>
       </c>
@@ -9301,51 +10466,6 @@
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>6</v>
-      </c>
-      <c r="B129" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
       <c r="S129">
         <v>5</v>
       </c>
@@ -9390,50 +10510,8 @@
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>3</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
+      <c r="A130" t="s">
+        <v>48</v>
       </c>
       <c r="S130">
         <v>15</v>
@@ -9479,50 +10557,56 @@
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>5</v>
+      <c r="A131" t="s">
+        <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131" t="s">
         <v>31</v>
       </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
+      <c r="J131" t="s">
+        <v>32</v>
+      </c>
+      <c r="K131" t="s">
+        <v>33</v>
+      </c>
+      <c r="L131" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" t="s">
+        <v>35</v>
+      </c>
+      <c r="N131" t="s">
+        <v>36</v>
+      </c>
+      <c r="O131" t="s">
+        <v>53</v>
+      </c>
+      <c r="P131" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>57</v>
       </c>
       <c r="S131">
         <v>4</v>
@@ -9569,13 +10653,13 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -9611,6 +10695,12 @@
         <v>0</v>
       </c>
       <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
         <v>0</v>
       </c>
       <c r="S132">
@@ -9658,13 +10748,13 @@
     </row>
     <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -9700,6 +10790,12 @@
         <v>0</v>
       </c>
       <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
         <v>0</v>
       </c>
       <c r="S133">
@@ -9747,13 +10843,13 @@
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -9777,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L134">
         <v>0</v>
@@ -9789,6 +10885,12 @@
         <v>0</v>
       </c>
       <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
         <v>0</v>
       </c>
       <c r="S134">
@@ -9836,13 +10938,13 @@
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -9878,6 +10980,12 @@
         <v>0</v>
       </c>
       <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
         <v>0</v>
       </c>
       <c r="S135">
@@ -9925,13 +11033,13 @@
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="B136" t="s">
-        <v>19</v>
-      </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -9967,6 +11075,12 @@
         <v>0</v>
       </c>
       <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
         <v>0</v>
       </c>
       <c r="S136">
@@ -10014,48 +11128,1278 @@
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
         <v>30</v>
       </c>
       <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>34</v>
+      </c>
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>17</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>53</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>54</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
         <v>57</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" t="s">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149" t="s">
+        <v>33</v>
+      </c>
+      <c r="L149" t="s">
+        <v>34</v>
+      </c>
+      <c r="M149" t="s">
+        <v>35</v>
+      </c>
+      <c r="N149" t="s">
+        <v>36</v>
+      </c>
+      <c r="O149" t="s">
+        <v>53</v>
+      </c>
+      <c r="P149" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>32</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>18</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>35</v>
+      </c>
+      <c r="B159" t="s">
+        <v>30</v>
+      </c>
+      <c r="C159" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>53</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>30</v>
+      </c>
+      <c r="C162" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>20</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
         <v>0</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obaut\Desktop\Math 225 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B27AD-D73E-4C04-91B5-B7D2CA73FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8FBF1-04D1-4465-AA50-9F6BF0EE0CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FAE6BCD2-6282-4EF1-92CB-692D2F2E6000}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE733629-00C7-4BC8-A385-083814275FDF}">
   <dimension ref="A2:AF163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
